--- a/src/library_manager/Details.xlsx
+++ b/src/library_manager/Details.xlsx
@@ -397,25 +397,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
         <v>gr number</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>username</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>password</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>m</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>m</v>
+      </c>
+      <c r="D2" t="str">
+        <v>p</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>r</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>r</v>
+      </c>
+      <c r="D3" t="str">
+        <v>r</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>